--- a/Selenium/Bugs/data/style/잔잔한.xlsx
+++ b/Selenium/Bugs/data/style/잔잔한.xlsx
@@ -298,7 +298,7 @@
     <t>Warm on a Christmas Night</t>
   </si>
   <si>
-    <t>Give Love on Christmas Day</t>
+    <t xml:space="preserve">Give Love on Christmas Day </t>
   </si>
   <si>
     <t>Alone for Christmas (feat. Kiana Ledé)</t>
@@ -628,7 +628,7 @@
     <t>Not Ready Yet (Album Version)</t>
   </si>
   <si>
-    <t>L'amoroso e sincero lindoro</t>
+    <t xml:space="preserve">L'amoroso e sincero lindoro </t>
   </si>
   <si>
     <t>Fair-Weather Friend</t>
@@ -733,7 +733,7 @@
     <t>O (Demo)</t>
   </si>
   <si>
-    <t>My Funny Valentine</t>
+    <t xml:space="preserve">My Funny Valentine </t>
   </si>
   <si>
     <t>Lately</t>
